--- a/数据整理/stocks/A股/深证主板/000069-华侨城A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000069-华侨城A.xlsx
@@ -451,463 +451,623 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7208</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6475</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3194</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3024</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2190</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>160628</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>鹏华中证800地产指数（LOF）</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>94.53</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>4.41</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1910</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001185</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>35.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006818</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002029</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>35.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161721</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>招商沪深300地产等权重指数</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>7.15</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>512200</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方中证全指房地产ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>99.69</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>515060</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华夏中证全指房地产ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>98.50</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001583</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>安信新常态沪港深精选股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001185</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>安信动态策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>35.95</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>161036</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富国中证娱乐主题指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>93.64</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006819</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000893</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>工银创新动力股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>82.35</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006818</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>安信盈利驱动股票A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>93.03</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006819</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>安信盈利驱动股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>93.03</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002029</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>安信动态策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>35.95</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005587</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>安信比较优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>89.62</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005576</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新金融地产灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>7.67</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>673110</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>西部利得新润灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>82.43</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008477</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>安信价值驱动三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>91.98</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -917,7 +1077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -938,15 +1098,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -958,26 +1128,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008809</t>
+          <t>512200</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>安信民稳增长混合A</t>
+          <t>南方中证全指房地产ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34.77</t>
+          <t>19.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>99.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0831</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008810</t>
+          <t>002943</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信民稳增长混合C</t>
+          <t>广发多因子灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>34.77</t>
+          <t>8.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4916</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003670</t>
+          <t>161721</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中融物联网主题灵活配置混合</t>
+          <t>招商沪深300地产等权重指数</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>81.01</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4752</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1042,25 +1242,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003717</t>
+          <t>673110</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中银量化精选灵活配置混合A</t>
+          <t>西部利得新润灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3394</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1070,25 +1280,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010484</t>
+          <t>000893</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中银量化精选灵活配置混合C</t>
+          <t>工银创新动力股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>81.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3274</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1098,25 +1318,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003366</t>
+          <t>160628</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>浙商汇金中证转型成长指数</t>
+          <t>鹏华中证800地产指数（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>95.44</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2099</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004604</t>
+          <t>004674</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国新活力灵活配置混合A</t>
+          <t>富国新机遇灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1679</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004605</t>
+          <t>001583</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国新活力灵活配置混合C</t>
+          <t>安信新常态沪港深精选股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1678</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001583</t>
+          <t>159916</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>安信新常态沪港深精选股票</t>
+          <t>建信深证基本面60ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.11</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004674</t>
+          <t>010124</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富国新机遇灵活配置混合A</t>
+          <t>兴银景气优选混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.54</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>81.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1281</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004675</t>
+          <t>004604</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>富国新机遇灵活配置混合C</t>
+          <t>富国新活力灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.54</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1266,25 +1546,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>161036</t>
+          <t>161611</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>富国中证娱乐主题指数增强（LOF）</t>
+          <t>融通内需驱动混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6.59</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>73.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002456</t>
+          <t>159910</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>招商安元灵活配置混合A</t>
+          <t>嘉实深证基本面120ETF</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>22.23</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>99.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1168</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>002457</t>
+          <t>008809</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>招商安元灵活配置混合C</t>
+          <t>安信民稳增长混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>22.23</t>
+          <t>6.77</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
+          <t>34.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>159910</t>
+          <t>008477</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>嘉实深证基本面120ETF</t>
+          <t>安信价值驱动三年持有期混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>99.66</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>159916</t>
+          <t>515060</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>建信深证基本面60ETF</t>
+          <t>华夏中证全指房地产ETF</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>99.17</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>97.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>005561</t>
+          <t>161036</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数A</t>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>005562</t>
+          <t>010125</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数C</t>
+          <t>兴银景气优选混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>8</v>
+          <t>81.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>000590</t>
+          <t>003028</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华安新活力灵活配置混合</t>
+          <t>安信新优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>20.15</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
+          <t>34.57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>006349</t>
+          <t>003029</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中金MSCI中国A股国际价值指数A</t>
+          <t>安信新优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
+          <t>34.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>006350</t>
+          <t>002456</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中金MSCI中国A股国际价值指数C</t>
+          <t>招商安元灵活配置混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>010124</t>
+          <t>000590</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>兴银景气优选混合A</t>
+          <t>华安新活力灵活配置混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>81.71</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>010125</t>
+          <t>002137</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>兴银景气优选混合C</t>
+          <t>诺安利鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>81.71</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>000893</t>
+          <t>000916</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>工银创新动力股票</t>
+          <t>前海开源股息率100强等权重股票</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>81.74</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>1</v>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>000916</t>
+          <t>008810</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>前海开源股息率100强等权重股票</t>
+          <t>安信民稳增长混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>2</v>
+          <t>34.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>512040</t>
+          <t>002457</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>富国中证价值ETF</t>
+          <t>招商安元灵活配置混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>98.57</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>4</v>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>512200</t>
+          <t>005561</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>南方中证全指房地产ETF</t>
+          <t>创金合信中证红利低波动指数A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>99.66</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>4</v>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>512530</t>
+          <t>512040</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>建信沪深300红利ETF</t>
+          <t>富国中证价值ETF</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>94.60</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>6</v>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>512530</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
+          <t>建信沪深300红利ETF</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>98.59</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>9</v>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>515060</t>
+          <t>004605</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华夏中证全指房地产ETF</t>
+          <t>富国新活力灵活配置混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>97.97</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>4</v>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>160628</t>
+          <t>004675</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>鹏华中证800地产指数（LOF）</t>
+          <t>富国新机遇灵活配置混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>94.22</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>4</v>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>002137</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>诺安利鑫灵活配置混合</t>
+          <t>华泰柏瑞中证红利低波动ETF</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>63.68</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>2</v>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>673110</t>
+          <t>003670</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>西部利得新润灵活配置混合</t>
+          <t>中融物联网主题灵活配置混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>80.27</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>6.49</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>1</v>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>161611</t>
+          <t>003717</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>融通内需驱动混合</t>
+          <t>中银量化精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>73.22</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>3</v>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>161721</t>
+          <t>005562</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>招商沪深300地产等权重指数</t>
+          <t>创金合信中证红利低波动指数C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>94.99</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10.56</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>1</v>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>002943</t>
+          <t>006349</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>广发多因子灵活配置混合</t>
+          <t>中金MSCI中国A股国际价值指数A</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>1</v>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -1966,25 +2496,35 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>003028</t>
+          <t>163821</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>安信新优选灵活配置混合A</t>
+          <t>中银沪深300等权重指数(LOF)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>34.57</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>003029</t>
+          <t>003366</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>安信新优选灵活配置混合C</t>
+          <t>浙商汇金中证转型成长指数</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>34.57</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>9</v>
+          <t>95.44</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>008477</t>
+          <t>006350</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>安信价值驱动三年持有期混合</t>
+          <t>中金MSCI中国A股国际价值指数C</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>88.66</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>9</v>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -2050,26 +2610,30 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>163821</t>
+          <t>010484</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中银沪深300等权重指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>9</v>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000069-华侨城A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000069-华侨城A.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2618,7 +2619,6 @@
           <t>中银量化精选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
           <t>93.76</t>
@@ -2634,6 +2634,860 @@
       </c>
       <c r="H41" t="n">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8360</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7261</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6863</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4470</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2621</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2164</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>36.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>33.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011073</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华安润混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>33.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011074</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华安润混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>33.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>33.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000069-华侨城A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000069-华侨城A.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3493,4 +3494,858 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>138.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.5726</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7522</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6961</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4683</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011905</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3374</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2642</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2615</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1837</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1808</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001399</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>28.98</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004607</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信利尚一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001400</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011906</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000069-华侨城A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000069-华侨城A.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4348,4 +4349,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000069-华侨城A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000069-华侨城A.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4357,7 +4358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4368,17 +4369,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4388,14 +4409,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.39</v>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>233.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.6724</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -4404,14 +4447,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.16</v>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2311</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -4420,14 +4485,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>40</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.71</v>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1450</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -4436,13 +4523,645 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9662</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9420</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8577</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2616</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2094</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1413</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002421</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新华增强债券A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000165</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>55.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>67.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>67.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002422</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新华增强债券C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>15</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000069-华侨城A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000069-华侨城A.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5060,7 +5061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5071,17 +5072,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5091,14 +5112,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.82</v>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3010</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -5107,14 +5150,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.39</v>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7500</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -5123,14 +5188,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.16</v>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>12.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2084</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -5139,14 +5226,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>40</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.71</v>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1137</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -5155,13 +5264,2331 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9556</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>62.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8632</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011236</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7445</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝多策略增长</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4221</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>257020</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国联安精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3685</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>370024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3490</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>70.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2978</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>70.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2978</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2522</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014187</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2336</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>68.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2281</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2275</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2205</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010425</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2129</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1859</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011743</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.89</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.29</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1771</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014325</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>65.10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1549</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011237</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1251</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005445</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1195</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001037</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>562510</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011175</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001399</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000165</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国投瑞银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>70.38</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>71.79</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014188</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011744</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>23.29</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>620001</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>金元顺安宝石动力混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>56.14</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华商改革创新股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>67.20</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001400</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>673071</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>27.46</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>52.39</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>673073</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>27.46</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011176</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014326</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国联安核心趋势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>165508</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>信诚深度价值混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>80.58</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>27.68</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>27.68</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001466</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华富永鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001467</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华富永鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>014641</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>62</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>40</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>15</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000069-华侨城A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000069-华侨城A.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7471,7 +7472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7482,17 +7483,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7502,14 +7523,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>62</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.43</v>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>73.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7709</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -7518,14 +7561,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.82</v>
+          <t>013273</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7274</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -7534,14 +7599,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.39</v>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>49.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8371</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -7550,14 +7637,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>21</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.16</v>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8224</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -7566,14 +7675,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>40</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.71</v>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6882</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -7582,13 +7713,1095 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>005711</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永赢惠添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5902</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝多策略增长</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3595</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3353</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2324</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2284</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2166</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1744</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1688</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>562510</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011836</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华智能建造股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005445</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009999</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方中国红利混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>165508</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信诚深度价值混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>28.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>28.05</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014256</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001466</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华富永鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001467</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华富永鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>62</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>40</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>15</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000069-华侨城A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000069-华侨城A.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>9.81</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>15.43</v>
+        <v>9.81</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="D4" t="n">
-        <v>13.82</v>
+        <v>15.43</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>10.39</v>
+        <v>13.82</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>6.16</v>
+        <v>10.39</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>4.71</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>40</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>15</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.1</v>
       </c>
     </row>
@@ -600,6 +617,706 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2406</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013273</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7919</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6957</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5735</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005711</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢惠添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4384</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>562510</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1268</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1256</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159768</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华中证内地地产主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159707</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝中证800地产ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015674</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014256</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015356</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1795,7 +2512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4205,7 +4922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4899,860 +5616,6 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002943</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发多因子灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>138.37</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>84.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6.5726</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000772</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城中国回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>14.72</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.87</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7522</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>512200</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方中证全指房地产ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>16.04</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.89</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6961</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161721</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商沪深300地产等权重指数</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.68</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.64</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4683</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011905</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>安信价值启航混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.09</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.75</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3374</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>673110</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>西部利得新润灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>79.56</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2642</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>160628</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华中证800地产指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2615</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001583</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>安信新常态沪港深精选股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.04</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1837</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>159766</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>99.07</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1808</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001399</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>安信鑫安得利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>8.84</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>21.87</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1202</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008477</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>安信价值驱动三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.90</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0944</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001364</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>大成景润灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>28.98</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0746</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>393001</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中海优势精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>73.17</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0662</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002383</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>大成趋势回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>29.44</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0600</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>515060</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华夏中证全指房地产ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>98.08</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0552</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004607</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>长信利尚一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>7.89</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>22.69</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0505</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001400</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>安信鑫安得利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>21.87</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0490</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>161036</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>富国中证娱乐主题指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0404</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005576</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新金融地产灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.23</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>6.73</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0249</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>011906</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>安信价值启航混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>91.75</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0242</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>003670</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>中融物联网主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>83.59</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0173</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5828,22 +5691,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>41.89</t>
+          <t>138.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.65</t>
+          <t>84.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.77</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.8360</t>
+          <t>6.5726</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -5856,36 +5719,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>512200</t>
+          <t>000772</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方中证全指房地产ETF</t>
+          <t>景顺长城中国回报灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.37</t>
+          <t>14.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.96</t>
+          <t>91.87</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7261</t>
+          <t>0.7522</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -5894,36 +5757,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000772</t>
+          <t>512200</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城中国回报灵活配置混合</t>
+          <t>南方中证全指房地产ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.42</t>
+          <t>16.04</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.80</t>
+          <t>99.89</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6863</t>
+          <t>0.6961</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -5942,26 +5805,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>89.68</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.80</t>
+          <t>8.64</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4470</t>
+          <t>0.4683</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -5970,36 +5833,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>673110</t>
+          <t>011905</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>西部利得新润灵活配置混合</t>
+          <t>安信价值启航混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>78.61</t>
+          <t>91.75</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2621</t>
+          <t>0.3374</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -6008,36 +5871,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000893</t>
+          <t>673110</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>工银创新动力股票</t>
+          <t>西部利得新润灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83.03</t>
+          <t>79.56</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2164</t>
+          <t>0.2642</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -6056,22 +5919,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>94.57</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1542</t>
+          <t>0.2615</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -6094,26 +5957,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>92.04</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1494</t>
+          <t>0.1837</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -6122,36 +5985,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009077</t>
+          <t>159766</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>红土创新稳进混合A</t>
+          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26.86</t>
+          <t>99.07</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1212</t>
+          <t>0.1808</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -6160,32 +6023,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009078</t>
+          <t>001399</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>红土创新稳进混合C</t>
+          <t>安信鑫安得利灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>8.84</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26.86</t>
+          <t>21.87</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1112</t>
+          <t>0.1202</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -6198,36 +6061,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009849</t>
+          <t>008477</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>安信稳健聚申一年持有期混合</t>
+          <t>安信价值驱动三年持有期混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>36.49</t>
+          <t>92.90</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0931</t>
+          <t>0.0944</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -6236,36 +6099,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008809</t>
+          <t>001364</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>安信民稳增长混合A</t>
+          <t>大成景润灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>9.83</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>33.08</t>
+          <t>28.98</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0904</t>
+          <t>0.0746</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -6274,36 +6137,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>008477</t>
+          <t>393001</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>安信价值驱动三年持有期混合</t>
+          <t>中海优势精选灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>89.23</t>
+          <t>73.17</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0858</t>
+          <t>0.0662</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -6312,36 +6175,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>515060</t>
+          <t>002383</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华夏中证全指房地产ETF</t>
+          <t>大成趋势回报灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>98.13</t>
+          <t>29.44</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0478</t>
+          <t>0.0600</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -6350,36 +6213,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>011073</t>
+          <t>515060</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鹏华安润混合A</t>
+          <t>华夏中证全指房地产ETF</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25.58</t>
+          <t>98.08</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0427</t>
+          <t>0.0552</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -6388,36 +6251,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005576</t>
+          <t>004607</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华泰柏瑞新金融地产灵活配置混合</t>
+          <t>长信利尚一年定期开放混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>7.89</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>22.69</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0290</t>
+          <t>0.0505</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -6426,36 +6289,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>161036</t>
+          <t>001400</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>富国中证娱乐主题指数增强（LOF）</t>
+          <t>安信鑫安得利灵活配置混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>21.87</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0267</t>
+          <t>0.0490</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -6464,36 +6327,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>008810</t>
+          <t>161036</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>安信民稳增长混合C</t>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>33.08</t>
+          <t>93.59</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0265</t>
+          <t>0.0404</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -6502,36 +6365,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>011074</t>
+          <t>005576</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>鹏华安润混合C</t>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>25.58</t>
+          <t>94.23</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>6.73</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0065</t>
+          <t>0.0249</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -6540,36 +6403,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>006700</t>
+          <t>011906</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>红土创新稳健混合A</t>
+          <t>安信价值启航混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>33.81</t>
+          <t>91.75</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0028</t>
+          <t>0.0242</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -6578,36 +6441,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>006701</t>
+          <t>003670</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>红土创新稳健混合C</t>
+          <t>中融物联网主题灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>33.81</t>
+          <t>83.59</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.0173</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6616,6 +6479,860 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8360</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7261</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6863</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4470</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2621</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2164</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>36.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>33.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011073</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华安润混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>33.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011074</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华安润混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>33.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>33.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8184,7 +8901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000069-华侨城A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000069-华侨城A.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>4.58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>9.81</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>15.43</v>
+        <v>9.81</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="D5" t="n">
-        <v>13.82</v>
+        <v>15.43</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>10.39</v>
+        <v>13.82</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>6.16</v>
+        <v>10.39</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D8" t="n">
-        <v>4.71</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,656 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>15</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>3.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7208</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6475</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3194</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3024</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2190</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1910</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001185</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>35.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006818</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002029</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>35.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006819</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1260,974 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1626</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013273</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>13.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0112</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>13.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6206</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005711</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>永赢惠添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4852</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007944</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢乾元三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>67.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3735</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2499</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1697</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1648</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159707</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝中证800地产ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159768</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华中证内地地产主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>481013</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015674</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>52.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005618</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014256</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001530</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家瑞富灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012007</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家瑞富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011475</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005619</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.29</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1316,7 +2927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2512,7 +4123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4922,7 +6533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5616,860 +7227,6 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002943</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发多因子灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>138.37</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>84.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6.5726</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000772</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城中国回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>14.72</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.87</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7522</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>512200</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方中证全指房地产ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>16.04</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.89</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6961</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161721</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商沪深300地产等权重指数</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.68</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.64</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4683</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011905</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>安信价值启航混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.09</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.75</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3374</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>673110</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>西部利得新润灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>79.56</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2642</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>160628</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华中证800地产指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2615</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001583</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>安信新常态沪港深精选股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.04</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1837</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>159766</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>99.07</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1808</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001399</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>安信鑫安得利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>8.84</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>21.87</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1202</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008477</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>安信价值驱动三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.90</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0944</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001364</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>大成景润灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>28.98</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0746</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>393001</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中海优势精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>73.17</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0662</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002383</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>大成趋势回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>29.44</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0600</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>515060</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华夏中证全指房地产ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>98.08</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0552</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004607</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>长信利尚一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>7.89</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>22.69</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0505</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001400</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>安信鑫安得利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>21.87</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0490</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>161036</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>富国中证娱乐主题指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0404</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005576</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新金融地产灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.23</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>6.73</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0249</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>011906</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>安信价值启航混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>91.75</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0242</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>003670</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>中融物联网主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>83.59</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0173</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6545,22 +7302,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>41.89</t>
+          <t>138.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.65</t>
+          <t>84.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.77</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.8360</t>
+          <t>6.5726</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -6573,36 +7330,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>512200</t>
+          <t>000772</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方中证全指房地产ETF</t>
+          <t>景顺长城中国回报灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.37</t>
+          <t>14.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.96</t>
+          <t>91.87</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7261</t>
+          <t>0.7522</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -6611,36 +7368,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000772</t>
+          <t>512200</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城中国回报灵活配置混合</t>
+          <t>南方中证全指房地产ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.42</t>
+          <t>16.04</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.80</t>
+          <t>99.89</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6863</t>
+          <t>0.6961</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -6659,26 +7416,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>89.68</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.80</t>
+          <t>8.64</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4470</t>
+          <t>0.4683</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -6687,36 +7444,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>673110</t>
+          <t>011905</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>西部利得新润灵活配置混合</t>
+          <t>安信价值启航混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>78.61</t>
+          <t>91.75</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2621</t>
+          <t>0.3374</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -6725,36 +7482,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000893</t>
+          <t>673110</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>工银创新动力股票</t>
+          <t>西部利得新润灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83.03</t>
+          <t>79.56</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2164</t>
+          <t>0.2642</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -6773,22 +7530,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>94.57</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1542</t>
+          <t>0.2615</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -6811,26 +7568,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>92.04</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1494</t>
+          <t>0.1837</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -6839,36 +7596,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009077</t>
+          <t>159766</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>红土创新稳进混合A</t>
+          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26.86</t>
+          <t>99.07</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1212</t>
+          <t>0.1808</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -6877,32 +7634,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009078</t>
+          <t>001399</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>红土创新稳进混合C</t>
+          <t>安信鑫安得利灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>8.84</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26.86</t>
+          <t>21.87</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1112</t>
+          <t>0.1202</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -6915,36 +7672,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009849</t>
+          <t>008477</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>安信稳健聚申一年持有期混合</t>
+          <t>安信价值驱动三年持有期混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>36.49</t>
+          <t>92.90</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0931</t>
+          <t>0.0944</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -6953,36 +7710,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008809</t>
+          <t>001364</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>安信民稳增长混合A</t>
+          <t>大成景润灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>9.83</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>33.08</t>
+          <t>28.98</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0904</t>
+          <t>0.0746</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -6991,36 +7748,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>008477</t>
+          <t>393001</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>安信价值驱动三年持有期混合</t>
+          <t>中海优势精选灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>89.23</t>
+          <t>73.17</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0858</t>
+          <t>0.0662</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -7029,36 +7786,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>515060</t>
+          <t>002383</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华夏中证全指房地产ETF</t>
+          <t>大成趋势回报灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>98.13</t>
+          <t>29.44</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0478</t>
+          <t>0.0600</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -7067,36 +7824,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>011073</t>
+          <t>515060</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鹏华安润混合A</t>
+          <t>华夏中证全指房地产ETF</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25.58</t>
+          <t>98.08</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0427</t>
+          <t>0.0552</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -7105,36 +7862,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005576</t>
+          <t>004607</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华泰柏瑞新金融地产灵活配置混合</t>
+          <t>长信利尚一年定期开放混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>7.89</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>22.69</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0290</t>
+          <t>0.0505</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -7143,36 +7900,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>161036</t>
+          <t>001400</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>富国中证娱乐主题指数增强（LOF）</t>
+          <t>安信鑫安得利灵活配置混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>21.87</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0267</t>
+          <t>0.0490</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -7181,36 +7938,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>008810</t>
+          <t>161036</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>安信民稳增长混合C</t>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>33.08</t>
+          <t>93.59</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0265</t>
+          <t>0.0404</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -7219,36 +7976,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>011074</t>
+          <t>005576</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>鹏华安润混合C</t>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>25.58</t>
+          <t>94.23</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>6.73</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0065</t>
+          <t>0.0249</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -7257,36 +8014,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>006700</t>
+          <t>011906</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>红土创新稳健混合A</t>
+          <t>安信价值启航混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>33.81</t>
+          <t>91.75</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0028</t>
+          <t>0.0242</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -7295,36 +8052,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>006701</t>
+          <t>003670</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>红土创新稳健混合C</t>
+          <t>中融物联网主题灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>33.81</t>
+          <t>83.59</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.0173</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -7333,6 +8090,860 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8360</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7261</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6863</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4470</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2621</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2164</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>36.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008809</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>33.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011073</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华安润混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008810</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>33.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011074</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华安润混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>33.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>33.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8899,630 +10510,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>512200</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方中证全指房地产ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>19.48</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.69</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7208</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001583</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>安信新常态沪港深精选股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>13.16</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6475</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000893</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>工银创新动力股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>82.35</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3194</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161721</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商沪深300地产等权重指数</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.15</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3024</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>673110</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>西部利得新润灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>82.43</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2190</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>160628</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华中证800地产指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1910</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001185</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>安信动态策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>35.95</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1554</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006818</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>安信盈利驱动股票A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.03</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1123</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002029</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>安信动态策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>35.95</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1060</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005587</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>安信比较优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>89.62</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1042</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008477</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>安信价值驱动三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.98</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0953</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005576</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新金融地产灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>7.67</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0430</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>515060</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华夏中证全指房地产ETF</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>98.50</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0403</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>161036</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>富国中证娱乐主题指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.64</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0329</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>006819</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>安信盈利驱动股票C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.03</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0077</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>